--- a/capiq_data/in_process_data/IQ1081952.xlsx
+++ b/capiq_data/in_process_data/IQ1081952.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B32D90-4DF8-4BF0-9ADE-5A6BD8A546A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B5588A-BD78-4BFD-80E9-989EA231A403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"42578959-149b-4ca7-b3ca-db581b5a579b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f818315f-a83f-4c26-b52b-6dda1575cd0a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$69</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$69</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$69</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$69</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$69</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$69</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$69</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$69</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$69</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$69</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$69</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$69</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$69</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$69</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$69</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$69</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$69</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$69</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$69</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$69</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$69</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$69</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$69</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$69</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$69</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$69</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +814,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>99.132000000000005</v>
+        <v>4.6219999999999999</v>
       </c>
       <c r="D2">
-        <v>285.02300000000002</v>
+        <v>24.213000000000001</v>
       </c>
       <c r="E2">
-        <v>114.456</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>285.02300000000002</v>
+        <v>23.856000000000002</v>
       </c>
       <c r="G2">
-        <v>23575.777999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>26642.258999999998</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>65.162000000000006</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>328.25400000000002</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +850,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="N2">
-        <v>23127.383999999998</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>23825.493999999999</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>581.00400000000002</v>
+        <v>2.13</v>
       </c>
       <c r="Q2">
-        <v>82.593999999999994</v>
+        <v>3.7010000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="S2">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2816.7649999999999</v>
+        <v>186.27600000000001</v>
       </c>
       <c r="U2">
-        <v>621.79200000000003</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>155.18700000000001</v>
+        <v>5.1529999999999996</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-56.395000000000003</v>
+        <v>-0.39200000000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.1739999999999999</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="AA2">
-        <v>99.132000000000005</v>
+        <v>4.6219999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>128.904</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="D3">
-        <v>334.28</v>
+        <v>26.257999999999999</v>
       </c>
       <c r="E3">
-        <v>165.244</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>334.28</v>
+        <v>25.917000000000002</v>
       </c>
       <c r="G3">
-        <v>25506.921999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28622.491000000002</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>68.802000000000007</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>261.82900000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +933,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-55.5</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>24985.661</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25650.79</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>524.82899999999995</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>72.465000000000003</v>
+        <v>3.0830000000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="S3">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2971.701</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>694.25699999999995</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>155.35599999999999</v>
+        <v>9.9909999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-66.884</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.59899999999999998</v>
+        <v>-3.464</v>
       </c>
       <c r="AA3">
-        <v>128.904</v>
+        <v>5.4370000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>121.36499999999999</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="D4">
-        <v>325.21800000000002</v>
+        <v>29.446999999999999</v>
       </c>
       <c r="E4">
-        <v>165.75800000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>325.21800000000002</v>
+        <v>29.085000000000001</v>
       </c>
       <c r="G4">
-        <v>27931.554</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>31040.873</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>82.085999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>191.23699999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1019,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>27373.035</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>27954.343000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>458.48700000000002</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>62.417000000000002</v>
+        <v>21.356999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="S4">
-        <v>972</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3086.53</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>756.67399999999998</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>165.71100000000001</v>
+        <v>9.4209999999999994</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-87.781000000000006</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-2.246</v>
+        <v>12.557</v>
       </c>
       <c r="AA4">
-        <v>121.36499999999999</v>
+        <v>7.0510000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>132.631</v>
+        <v>4.8390000000000004</v>
       </c>
       <c r="D5">
-        <v>340.77800000000002</v>
+        <v>28.495999999999999</v>
       </c>
       <c r="E5">
-        <v>159.21899999999999</v>
+        <v>9.6080000000000005</v>
       </c>
       <c r="F5">
-        <v>340.77800000000002</v>
+        <v>29.556000000000001</v>
       </c>
       <c r="G5">
-        <v>35222.949000000001</v>
+        <v>100.042</v>
       </c>
       <c r="H5">
-        <v>38666.730000000003</v>
+        <v>207.518</v>
       </c>
       <c r="I5">
-        <v>79.48</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="J5">
-        <v>370.62400000000002</v>
+        <v>13</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1102,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>34928.699999999997</v>
+        <v>34.44</v>
       </c>
       <c r="O5">
-        <v>35655.597999999998</v>
+        <v>57.786999999999999</v>
       </c>
       <c r="P5">
-        <v>602.12400000000002</v>
+        <v>25.481999999999999</v>
       </c>
       <c r="Q5">
-        <v>-259.37099999999998</v>
+        <v>-11.855</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="S5">
-        <v>984</v>
+        <v>200</v>
       </c>
       <c r="T5">
-        <v>3011.1320000000001</v>
+        <v>149.73099999999999</v>
       </c>
       <c r="U5">
-        <v>497.303</v>
+        <v>61.198999999999998</v>
       </c>
       <c r="V5">
-        <v>219.71799999999999</v>
+        <v>15.596</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>39.981999999999999</v>
+        <v>-19.109000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-514.24400000000003</v>
+        <v>-2.1680000000000001</v>
       </c>
       <c r="AA5">
-        <v>132.631</v>
+        <v>4.8390000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>126.773</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="D6">
-        <v>327.21499999999997</v>
+        <v>31.827999999999999</v>
       </c>
       <c r="E6">
-        <v>136.33099999999999</v>
+        <v>12.298</v>
       </c>
       <c r="F6">
-        <v>327.21499999999997</v>
+        <v>31.827999999999999</v>
       </c>
       <c r="G6">
-        <v>32605.391</v>
+        <v>95.290999999999997</v>
       </c>
       <c r="H6">
-        <v>36147.864000000001</v>
+        <v>199.46199999999999</v>
       </c>
       <c r="I6">
-        <v>65.963999999999999</v>
+        <v>1.637</v>
       </c>
       <c r="J6">
-        <v>837.5</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1182,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-12.481999999999999</v>
       </c>
       <c r="N6">
-        <v>31800.313999999998</v>
+        <v>20.545000000000002</v>
       </c>
       <c r="O6">
-        <v>32985.523000000001</v>
+        <v>43.576999999999998</v>
       </c>
       <c r="P6">
-        <v>887.5</v>
+        <v>13</v>
       </c>
       <c r="Q6">
-        <v>325.64600000000002</v>
+        <v>-15.771000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="S6">
-        <v>1013</v>
+        <v>205</v>
       </c>
       <c r="T6">
-        <v>3162.3409999999999</v>
+        <v>155.88499999999999</v>
       </c>
       <c r="U6">
-        <v>822.94899999999996</v>
+        <v>45.427999999999997</v>
       </c>
       <c r="V6">
-        <v>171.98500000000001</v>
+        <v>8.3209999999999997</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>219.79400000000001</v>
+        <v>-14.218999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-3.0000000000000001E-3</v>
+        <v>-6.6479999999999997</v>
       </c>
       <c r="AA6">
-        <v>126.773</v>
+        <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>147.86500000000001</v>
+        <v>-0.14099999999999999</v>
       </c>
       <c r="D7">
-        <v>365.19400000000002</v>
+        <v>37.53</v>
       </c>
       <c r="E7">
-        <v>178.84399999999999</v>
+        <v>16.213999999999999</v>
       </c>
       <c r="F7">
-        <v>365.19400000000002</v>
+        <v>37.53</v>
       </c>
       <c r="G7">
-        <v>32506.784</v>
+        <v>104.66200000000001</v>
       </c>
       <c r="H7">
-        <v>36124.101000000002</v>
+        <v>202.54</v>
       </c>
       <c r="I7">
-        <v>76.820999999999998</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="J7">
-        <v>825</v>
+        <v>13</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1265,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>31550.501</v>
+        <v>32.241999999999997</v>
       </c>
       <c r="O7">
-        <v>32716.204000000002</v>
+        <v>53.77</v>
       </c>
       <c r="P7">
-        <v>875</v>
+        <v>13</v>
       </c>
       <c r="Q7">
-        <v>145.43600000000001</v>
+        <v>20.210999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="S7">
-        <v>1032</v>
+        <v>192</v>
       </c>
       <c r="T7">
-        <v>3407.8969999999999</v>
+        <v>148.77000000000001</v>
       </c>
       <c r="U7">
-        <v>968.38499999999999</v>
+        <v>65.638999999999996</v>
       </c>
       <c r="V7">
-        <v>185.64400000000001</v>
+        <v>7.9130000000000003</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-25.824000000000002</v>
+        <v>-1.1259999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>12.429</v>
       </c>
       <c r="AA7">
-        <v>147.86500000000001</v>
+        <v>-0.14099999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>143.15700000000001</v>
+        <v>16.821000000000002</v>
       </c>
       <c r="D8">
-        <v>351.21300000000002</v>
+        <v>45.244999999999997</v>
       </c>
       <c r="E8">
-        <v>175.18600000000001</v>
+        <v>16.553999999999998</v>
       </c>
       <c r="F8">
-        <v>351.21300000000002</v>
+        <v>44.642000000000003</v>
       </c>
       <c r="G8">
-        <v>36058.453999999998</v>
+        <v>86.204999999999998</v>
       </c>
       <c r="H8">
-        <v>39504.767999999996</v>
+        <v>212.09200000000001</v>
       </c>
       <c r="I8">
-        <v>73.603999999999999</v>
+        <v>1.774</v>
       </c>
       <c r="J8">
-        <v>812.5</v>
+        <v>13</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1351,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>34955.548999999999</v>
+        <v>26.661000000000001</v>
       </c>
       <c r="O8">
-        <v>36097.440999999999</v>
+        <v>47.457000000000001</v>
       </c>
       <c r="P8">
-        <v>862.5</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>113.633</v>
+        <v>-31.405000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="S8">
-        <v>1059</v>
+        <v>194</v>
       </c>
       <c r="T8">
-        <v>3407.3270000000002</v>
+        <v>164.63499999999999</v>
       </c>
       <c r="U8">
-        <v>1082.018</v>
+        <v>34.234000000000002</v>
       </c>
       <c r="V8">
-        <v>179.92500000000001</v>
+        <v>13.256</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-19.850000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>4.2999999999999997E-2</v>
+        <v>-40.372999999999998</v>
       </c>
       <c r="AA8">
-        <v>143.15700000000001</v>
+        <v>16.821000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>131.08199999999999</v>
+        <v>14.86</v>
       </c>
       <c r="D9">
-        <v>323.18700000000001</v>
+        <v>41.262</v>
       </c>
       <c r="E9">
-        <v>148.89699999999999</v>
+        <v>14.773</v>
       </c>
       <c r="F9">
-        <v>323.18700000000001</v>
+        <v>40.697000000000003</v>
       </c>
       <c r="G9">
-        <v>34034.495000000003</v>
+        <v>164.01499999999999</v>
       </c>
       <c r="H9">
-        <v>37540.084000000003</v>
+        <v>265.77</v>
       </c>
       <c r="I9">
-        <v>83.724999999999994</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="J9">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1434,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>32810.341999999997</v>
+        <v>26.393999999999998</v>
       </c>
       <c r="O9">
-        <v>33934.125</v>
+        <v>33.146999999999998</v>
       </c>
       <c r="P9">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>159.15799999999999</v>
+        <v>-14.231999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="S9">
-        <v>1074</v>
+        <v>203</v>
       </c>
       <c r="T9">
-        <v>3605.9589999999998</v>
+        <v>232.62299999999999</v>
       </c>
       <c r="U9">
-        <v>1241.1759999999999</v>
+        <v>20.001999999999999</v>
       </c>
       <c r="V9">
-        <v>207.14500000000001</v>
+        <v>20.321999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-15.057</v>
+        <v>45.445</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-73.227999999999994</v>
       </c>
       <c r="AA9">
-        <v>131.08199999999999</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>129.89599999999999</v>
+        <v>19.664000000000001</v>
       </c>
       <c r="D10">
-        <v>323.40600000000001</v>
+        <v>50.281999999999996</v>
       </c>
       <c r="E10">
-        <v>127</v>
+        <v>20.757000000000001</v>
       </c>
       <c r="F10">
-        <v>323.40600000000001</v>
+        <v>49.268000000000001</v>
       </c>
       <c r="G10">
-        <v>33750</v>
+        <v>181.935</v>
       </c>
       <c r="H10">
-        <v>37215</v>
+        <v>291.69600000000003</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="J10">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1517,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>32246</v>
+        <v>28.248999999999999</v>
       </c>
       <c r="O10">
-        <v>33538</v>
+        <v>35.034999999999997</v>
       </c>
       <c r="P10">
-        <v>1132</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>370.77300000000002</v>
+        <v>-11.804</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="S10">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>3677</v>
+        <v>256.661</v>
       </c>
       <c r="U10">
-        <v>1612</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="V10">
-        <v>160.286</v>
+        <v>19.437000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>232.73099999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-4.2999999999999997E-2</v>
+        <v>-28.33</v>
       </c>
       <c r="AA10">
-        <v>129.89599999999999</v>
+        <v>19.664000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>30.966999999999999</v>
       </c>
       <c r="D11">
-        <v>352</v>
+        <v>73.590999999999994</v>
       </c>
       <c r="E11">
-        <v>186.95500000000001</v>
+        <v>29.603999999999999</v>
       </c>
       <c r="F11">
-        <v>352</v>
+        <v>71.393000000000001</v>
       </c>
       <c r="G11">
-        <v>35375.180999999997</v>
+        <v>242.43299999999999</v>
       </c>
       <c r="H11">
-        <v>38858.536999999997</v>
+        <v>350.22</v>
       </c>
       <c r="I11">
-        <v>95.277000000000001</v>
+        <v>1.204</v>
       </c>
       <c r="J11">
-        <v>861.67600000000004</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1597,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-222</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>33909.629999999997</v>
+        <v>25.692</v>
       </c>
       <c r="O11">
-        <v>35095.853999999999</v>
+        <v>33.576999999999998</v>
       </c>
       <c r="P11">
-        <v>910.5</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-221</v>
+        <v>45.896000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="S11">
-        <v>1105</v>
+        <v>212</v>
       </c>
       <c r="T11">
-        <v>3762.683</v>
+        <v>316.64299999999997</v>
       </c>
       <c r="U11">
-        <v>1390.836</v>
+        <v>54.094000000000001</v>
       </c>
       <c r="V11">
-        <v>150</v>
+        <v>23.433</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-252</v>
+        <v>17.117999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>9.1539999999999999</v>
       </c>
       <c r="AA11">
-        <v>135</v>
+        <v>30.966999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>154</v>
+        <v>43.645000000000003</v>
       </c>
       <c r="D12">
-        <v>372</v>
+        <v>94.662000000000006</v>
       </c>
       <c r="E12">
-        <v>185.78399999999999</v>
+        <v>36.698999999999998</v>
       </c>
       <c r="F12">
-        <v>372</v>
+        <v>91.510999999999996</v>
       </c>
       <c r="G12">
-        <v>37185.205999999998</v>
+        <v>311.39100000000002</v>
       </c>
       <c r="H12">
-        <v>40613.726999999999</v>
+        <v>420.85</v>
       </c>
       <c r="I12">
-        <v>108.94799999999999</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J12">
-        <v>753.971</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1683,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>35644.798000000003</v>
+        <v>35.316000000000003</v>
       </c>
       <c r="O12">
-        <v>36719.682999999997</v>
+        <v>41.417000000000002</v>
       </c>
       <c r="P12">
-        <v>802.79499999999996</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>66</v>
+        <v>16.088000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="S12">
-        <v>1128</v>
+        <v>223</v>
       </c>
       <c r="T12">
-        <v>3894.0439999999999</v>
+        <v>379.43299999999999</v>
       </c>
       <c r="U12">
-        <v>1457.048</v>
+        <v>70.182000000000002</v>
       </c>
       <c r="V12">
-        <v>232</v>
+        <v>48.744</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-102</v>
+        <v>17.856000000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-37</v>
+        <v>-44.606000000000002</v>
       </c>
       <c r="AA12">
-        <v>154</v>
+        <v>43.646000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>141</v>
+        <v>48.991999999999997</v>
       </c>
       <c r="D13">
-        <v>338</v>
+        <v>95.265000000000001</v>
       </c>
       <c r="E13">
-        <v>175.82599999999999</v>
+        <v>32.121000000000002</v>
       </c>
       <c r="F13">
-        <v>338</v>
+        <v>92.588999999999999</v>
       </c>
       <c r="G13">
-        <v>45389.607000000004</v>
+        <v>340.91699999999997</v>
       </c>
       <c r="H13">
-        <v>48884.91</v>
+        <v>493.21100000000001</v>
       </c>
       <c r="I13">
-        <v>94.53</v>
+        <v>13.228</v>
       </c>
       <c r="J13">
-        <v>341.76499999999999</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,81 +1766,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>44145.809000000001</v>
+        <v>37.899000000000001</v>
       </c>
       <c r="O13">
-        <v>44798.851999999999</v>
+        <v>38.743000000000002</v>
       </c>
       <c r="P13">
-        <v>790.58900000000006</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>80</v>
+        <v>134.07499999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="S13">
-        <v>1121</v>
+        <v>226</v>
       </c>
       <c r="T13">
-        <v>4086.058</v>
+        <v>454.46800000000002</v>
       </c>
       <c r="U13">
-        <v>1537.2660000000001</v>
+        <v>204.25700000000001</v>
       </c>
       <c r="V13">
-        <v>180</v>
+        <v>59.075000000000003</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-22</v>
+        <v>22.675999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>63.707999999999998</v>
       </c>
       <c r="AA13">
-        <v>141</v>
+        <v>48.991999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>55.585999999999999</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>126.608</v>
       </c>
       <c r="E14">
-        <v>546</v>
+        <v>48.4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>124.90300000000001</v>
       </c>
       <c r="G14">
-        <v>44269</v>
+        <v>942.43799999999999</v>
       </c>
       <c r="H14">
-        <v>64422</v>
+        <v>2294.933</v>
       </c>
       <c r="I14">
-        <v>392</v>
+        <v>41.667000000000002</v>
       </c>
       <c r="J14">
-        <v>3923</v>
+        <v>212.5</v>
       </c>
       <c r="K14">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1849,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>44321</v>
+        <v>758.81700000000001</v>
       </c>
       <c r="O14">
-        <v>51719</v>
+        <v>1054.836</v>
       </c>
       <c r="P14">
-        <v>5058</v>
+        <v>250</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-89.393000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="S14">
-        <v>4232</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>12703</v>
+        <v>1240.097</v>
       </c>
       <c r="U14">
-        <v>961</v>
+        <v>114.864</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>30.831</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>266.48099999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>18.018000000000001</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>55.585999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>261</v>
+        <v>53.692999999999998</v>
       </c>
       <c r="D15">
-        <v>797</v>
+        <v>136.654</v>
       </c>
       <c r="E15">
-        <v>544</v>
+        <v>58.277000000000001</v>
       </c>
       <c r="F15">
-        <v>797</v>
+        <v>136.654</v>
       </c>
       <c r="G15">
-        <v>45254</v>
+        <v>1042.8800000000001</v>
       </c>
       <c r="H15">
-        <v>65921</v>
+        <v>2548.2449999999999</v>
       </c>
       <c r="I15">
-        <v>357</v>
+        <v>23.276</v>
       </c>
       <c r="J15">
-        <v>3584</v>
+        <v>203.125</v>
       </c>
       <c r="K15">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-161</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>45403</v>
+        <v>871.96199999999999</v>
       </c>
       <c r="O15">
-        <v>52685</v>
+        <v>1242.2829999999999</v>
       </c>
       <c r="P15">
-        <v>4881</v>
+        <v>240.625</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5.9880000000000004</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="S15">
-        <v>4048</v>
+        <v>474</v>
       </c>
       <c r="T15">
-        <v>13236</v>
+        <v>1305.962</v>
       </c>
       <c r="U15">
-        <v>964</v>
+        <v>120.852</v>
       </c>
       <c r="V15">
-        <v>519</v>
+        <v>63.972999999999999</v>
       </c>
       <c r="W15">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-266</v>
+        <v>-1.639</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>-47.817</v>
       </c>
       <c r="AA15">
-        <v>261</v>
+        <v>53.692999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>226</v>
+        <v>66.680999999999997</v>
       </c>
       <c r="D16">
-        <v>750</v>
+        <v>151.73500000000001</v>
       </c>
       <c r="E16">
-        <v>432</v>
+        <v>58.814</v>
       </c>
       <c r="F16">
-        <v>750</v>
+        <v>151.73500000000001</v>
       </c>
       <c r="G16">
-        <v>50191</v>
+        <v>1046.739</v>
       </c>
       <c r="H16">
-        <v>68482</v>
+        <v>2684.2159999999999</v>
       </c>
       <c r="I16">
-        <v>293</v>
+        <v>16.047000000000001</v>
       </c>
       <c r="J16">
-        <v>2248</v>
+        <v>193.75</v>
       </c>
       <c r="K16">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2015,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>49670</v>
+        <v>872.70799999999997</v>
       </c>
       <c r="O16">
-        <v>54942</v>
+        <v>1297.827</v>
       </c>
       <c r="P16">
-        <v>3931</v>
+        <v>231.25</v>
       </c>
       <c r="Q16">
-        <v>1093</v>
+        <v>-28.027000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="S16">
-        <v>4929</v>
+        <v>510</v>
       </c>
       <c r="T16">
-        <v>13540</v>
+        <v>1386.3889999999999</v>
       </c>
       <c r="U16">
-        <v>2057</v>
+        <v>92.825000000000003</v>
       </c>
       <c r="V16">
-        <v>372</v>
+        <v>90.784999999999997</v>
       </c>
       <c r="W16">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-680</v>
+        <v>-2.5739999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>22</v>
+        <v>10.925000000000001</v>
       </c>
       <c r="AA16">
-        <v>226</v>
+        <v>66.680999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>206</v>
+        <v>64.652000000000001</v>
       </c>
       <c r="D17">
-        <v>745</v>
+        <v>159.29599999999999</v>
       </c>
       <c r="E17">
-        <v>446</v>
+        <v>52.018000000000001</v>
       </c>
       <c r="F17">
-        <v>745</v>
+        <v>159.29599999999999</v>
       </c>
       <c r="G17">
-        <v>49378</v>
+        <v>1142.0940000000001</v>
       </c>
       <c r="H17">
-        <v>67286</v>
+        <v>2796.3449999999998</v>
       </c>
       <c r="I17">
-        <v>282</v>
+        <v>27.811</v>
       </c>
       <c r="J17">
-        <v>2247</v>
+        <v>184.375</v>
       </c>
       <c r="K17">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2098,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>49337</v>
+        <v>910.96100000000001</v>
       </c>
       <c r="O17">
-        <v>54499</v>
+        <v>1319.489</v>
       </c>
       <c r="P17">
-        <v>4136</v>
+        <v>221.875</v>
       </c>
       <c r="Q17">
-        <v>-1419</v>
+        <v>26.771999999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="S17">
-        <v>4175</v>
+        <v>506</v>
       </c>
       <c r="T17">
-        <v>12787</v>
+        <v>1476.856</v>
       </c>
       <c r="U17">
-        <v>638</v>
+        <v>119.59699999999999</v>
       </c>
       <c r="V17">
-        <v>82</v>
+        <v>102.19199999999999</v>
       </c>
       <c r="W17">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-333</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-1276</v>
+        <v>-40.752000000000002</v>
       </c>
       <c r="AA17">
-        <v>206</v>
+        <v>64.652000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>288</v>
+        <v>92.29</v>
       </c>
       <c r="D18">
-        <v>800</v>
+        <v>207.214</v>
       </c>
       <c r="E18">
-        <v>508</v>
+        <v>74.524000000000001</v>
       </c>
       <c r="F18">
-        <v>800</v>
+        <v>207.214</v>
       </c>
       <c r="G18">
-        <v>50232</v>
+        <v>1334.34</v>
       </c>
       <c r="H18">
-        <v>68254</v>
+        <v>3052.9349999999999</v>
       </c>
       <c r="I18">
-        <v>409</v>
+        <v>25.073</v>
       </c>
       <c r="J18">
-        <v>2235</v>
+        <v>175</v>
       </c>
       <c r="K18">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-9.375</v>
       </c>
       <c r="N18">
-        <v>50436</v>
+        <v>1054.54</v>
       </c>
       <c r="O18">
-        <v>55697</v>
+        <v>1458.4490000000001</v>
       </c>
       <c r="P18">
-        <v>4277</v>
+        <v>212.5</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>96.28</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="S18">
-        <v>2902</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>12557</v>
+        <v>1594.4860000000001</v>
       </c>
       <c r="U18">
-        <v>652</v>
+        <v>215.87700000000001</v>
       </c>
       <c r="V18">
-        <v>541</v>
+        <v>79.344999999999999</v>
       </c>
       <c r="W18">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-55</v>
+        <v>-15.256</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>2274</v>
+        <v>70.789000000000001</v>
       </c>
       <c r="AA18">
-        <v>288</v>
+        <v>92.29</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>315</v>
+        <v>84.864000000000004</v>
       </c>
       <c r="D19">
-        <v>850</v>
+        <v>197.16</v>
       </c>
       <c r="E19">
-        <v>608</v>
+        <v>78.376000000000005</v>
       </c>
       <c r="F19">
-        <v>850</v>
+        <v>197.16</v>
       </c>
       <c r="G19">
-        <v>48486</v>
+        <v>1278.8530000000001</v>
       </c>
       <c r="H19">
-        <v>66428</v>
+        <v>2996.058</v>
       </c>
       <c r="I19">
-        <v>392</v>
+        <v>30.98</v>
       </c>
       <c r="J19">
-        <v>2247</v>
+        <v>162.5</v>
       </c>
       <c r="K19">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2264,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>48798</v>
+        <v>912.495</v>
       </c>
       <c r="O19">
-        <v>53934</v>
+        <v>1298.079</v>
       </c>
       <c r="P19">
-        <v>4193</v>
+        <v>203.125</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>146.98099999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="S19">
-        <v>2887</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>12494</v>
+        <v>1697.979</v>
       </c>
       <c r="U19">
-        <v>752</v>
+        <v>362.858</v>
       </c>
       <c r="V19">
-        <v>465</v>
+        <v>112.20699999999999</v>
       </c>
       <c r="W19">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-268</v>
+        <v>-3.4039999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-60</v>
+        <v>52.558999999999997</v>
       </c>
       <c r="AA19">
-        <v>315</v>
+        <v>84.864000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>283</v>
+        <v>74.962999999999994</v>
       </c>
       <c r="D20">
-        <v>797</v>
+        <v>201.44399999999999</v>
       </c>
       <c r="E20">
-        <v>541</v>
+        <v>98.694000000000003</v>
       </c>
       <c r="F20">
-        <v>797</v>
+        <v>201.44399999999999</v>
       </c>
       <c r="G20">
-        <v>45133</v>
+        <v>1748.2729999999999</v>
       </c>
       <c r="H20">
-        <v>63104</v>
+        <v>4160.8710000000001</v>
       </c>
       <c r="I20">
-        <v>324</v>
+        <v>47.348999999999997</v>
       </c>
       <c r="J20">
-        <v>2247</v>
+        <v>345</v>
       </c>
       <c r="K20">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2347,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>45580</v>
+        <v>1558.3130000000001</v>
       </c>
       <c r="O20">
-        <v>50621</v>
+        <v>2200.4839999999999</v>
       </c>
       <c r="P20">
-        <v>3263</v>
+        <v>388.75</v>
       </c>
       <c r="Q20">
-        <v>-74</v>
+        <v>-121.131</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="S20">
-        <v>2866</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>12483</v>
+        <v>1960.3869999999999</v>
       </c>
       <c r="U20">
-        <v>678</v>
+        <v>241.727</v>
       </c>
       <c r="V20">
-        <v>305</v>
+        <v>107.87</v>
       </c>
       <c r="W20">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-1367</v>
+        <v>-113.467</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1144</v>
+        <v>10.647</v>
       </c>
       <c r="AA20">
-        <v>283</v>
+        <v>74.962999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>306</v>
+        <v>48.854999999999997</v>
       </c>
       <c r="D21">
-        <v>816</v>
+        <v>207.26</v>
       </c>
       <c r="E21">
-        <v>490</v>
+        <v>81.248000000000005</v>
       </c>
       <c r="F21">
-        <v>816</v>
+        <v>207.26</v>
       </c>
       <c r="G21">
-        <v>48052</v>
+        <v>12552.588</v>
       </c>
       <c r="H21">
-        <v>65856</v>
+        <v>14959.581</v>
       </c>
       <c r="I21">
-        <v>297</v>
+        <v>49.662999999999997</v>
       </c>
       <c r="J21">
-        <v>2247</v>
+        <v>332.5</v>
       </c>
       <c r="K21">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,247 +2430,247 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>48458</v>
+        <v>12311.642</v>
       </c>
       <c r="O21">
-        <v>53446</v>
+        <v>12947.401</v>
       </c>
       <c r="P21">
-        <v>3500</v>
+        <v>379.375</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>41.795000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="S21">
-        <v>2907</v>
+        <v>795</v>
       </c>
       <c r="T21">
-        <v>12410</v>
+        <v>2012.18</v>
       </c>
       <c r="U21">
-        <v>687</v>
+        <v>283.52199999999999</v>
       </c>
       <c r="V21">
-        <v>120</v>
+        <v>75.69</v>
       </c>
       <c r="W21">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-57</v>
+        <v>-8.9920000000000009</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-2.012</v>
       </c>
       <c r="AA21">
-        <v>306</v>
+        <v>48.854999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
+        <v>72.221999999999994</v>
+      </c>
+      <c r="D22">
+        <v>231.553</v>
+      </c>
+      <c r="E22">
+        <v>110.64700000000001</v>
+      </c>
+      <c r="F22">
+        <v>231.553</v>
+      </c>
+      <c r="G22">
+        <v>13137.885</v>
+      </c>
+      <c r="H22">
+        <v>15624.906000000001</v>
+      </c>
+      <c r="I22">
+        <v>46.238999999999997</v>
+      </c>
+      <c r="J22">
+        <v>280</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>-10.943</v>
+      </c>
+      <c r="N22">
+        <v>12911.216</v>
+      </c>
+      <c r="O22">
+        <v>13498.804</v>
+      </c>
+      <c r="P22">
         <v>370</v>
       </c>
-      <c r="D22">
-        <v>875</v>
-      </c>
-      <c r="E22">
-        <v>700</v>
-      </c>
-      <c r="F22">
-        <v>875</v>
-      </c>
-      <c r="G22">
-        <v>53313</v>
-      </c>
-      <c r="H22">
-        <v>77987</v>
-      </c>
-      <c r="I22">
-        <v>398</v>
-      </c>
-      <c r="J22">
-        <v>4717</v>
-      </c>
-      <c r="K22">
-        <v>2591</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>54743</v>
-      </c>
-      <c r="O22">
-        <v>63112</v>
-      </c>
-      <c r="P22">
-        <v>7308</v>
-      </c>
       <c r="Q22">
-        <v>-60</v>
+        <v>-53.926000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="S22">
-        <v>5549</v>
+        <v>803</v>
       </c>
       <c r="T22">
-        <v>14875</v>
+        <v>2126.1019999999999</v>
       </c>
       <c r="U22">
-        <v>627</v>
+        <v>229.596</v>
       </c>
       <c r="V22">
-        <v>421</v>
+        <v>67.72</v>
       </c>
       <c r="W22">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>3668</v>
+        <v>-15.064</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-60</v>
+        <v>3.371</v>
       </c>
       <c r="AA22">
-        <v>370</v>
+        <v>72.221999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>369</v>
+        <v>72.058000000000007</v>
       </c>
       <c r="D23">
-        <v>1154</v>
+        <v>250.417</v>
       </c>
       <c r="E23">
-        <v>941</v>
+        <v>119.613</v>
       </c>
       <c r="F23">
-        <v>1154</v>
+        <v>250.417</v>
       </c>
       <c r="G23">
-        <v>54554</v>
+        <v>18384.748</v>
       </c>
       <c r="H23">
-        <v>79160</v>
+        <v>20864.021000000001</v>
       </c>
       <c r="I23">
-        <v>399</v>
+        <v>52.158999999999999</v>
       </c>
       <c r="J23">
-        <v>4718</v>
+        <v>259.5</v>
       </c>
       <c r="K23">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-543</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>55636</v>
+        <v>18076.449000000001</v>
       </c>
       <c r="O23">
-        <v>64046</v>
+        <v>18633.131000000001</v>
       </c>
       <c r="P23">
-        <v>6766</v>
+        <v>352.5</v>
       </c>
       <c r="Q23">
-        <v>-159</v>
+        <v>70.863</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="S23">
-        <v>5526</v>
+        <v>806</v>
       </c>
       <c r="T23">
-        <v>15114</v>
+        <v>2230.89</v>
       </c>
       <c r="U23">
-        <v>468</v>
+        <v>300.459</v>
       </c>
       <c r="V23">
-        <v>597</v>
+        <v>115.419</v>
       </c>
       <c r="W23">
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-697</v>
+        <v>-18.962</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-23.327000000000002</v>
       </c>
       <c r="AA23">
-        <v>369</v>
+        <v>72.058000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>357</v>
+        <v>87.453999999999994</v>
       </c>
       <c r="D24">
-        <v>1129</v>
+        <v>256.26400000000001</v>
       </c>
       <c r="E24">
-        <v>862</v>
+        <v>132.559</v>
       </c>
       <c r="F24">
-        <v>1129</v>
+        <v>256.26400000000001</v>
       </c>
       <c r="G24">
-        <v>50630</v>
+        <v>17094.59</v>
       </c>
       <c r="H24">
-        <v>75224</v>
+        <v>19561.738000000001</v>
       </c>
       <c r="I24">
-        <v>350</v>
+        <v>59.771999999999998</v>
       </c>
       <c r="J24">
-        <v>4719</v>
+        <v>235.87100000000001</v>
       </c>
       <c r="K24">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2679,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>51438</v>
+        <v>16687.385999999999</v>
       </c>
       <c r="O24">
-        <v>59861</v>
+        <v>17224.276999999998</v>
       </c>
       <c r="P24">
-        <v>6530</v>
+        <v>331.87099999999998</v>
       </c>
       <c r="Q24">
-        <v>-78</v>
+        <v>91.17</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="S24">
-        <v>5503</v>
+        <v>821</v>
       </c>
       <c r="T24">
-        <v>15363</v>
+        <v>2337.4609999999998</v>
       </c>
       <c r="U24">
-        <v>390</v>
+        <v>391.62900000000002</v>
       </c>
       <c r="V24">
-        <v>506</v>
+        <v>119.98</v>
       </c>
       <c r="W24">
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-334</v>
+        <v>-18.597999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>7.3559999999999999</v>
       </c>
       <c r="AA24">
-        <v>357</v>
+        <v>87.453999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>344</v>
+        <v>84.254000000000005</v>
       </c>
       <c r="D25">
-        <v>1078</v>
+        <v>256.55399999999997</v>
       </c>
       <c r="E25">
-        <v>789</v>
+        <v>109.068</v>
       </c>
       <c r="F25">
-        <v>1078</v>
+        <v>256.55399999999997</v>
       </c>
       <c r="G25">
-        <v>51844</v>
+        <v>19459.850999999999</v>
       </c>
       <c r="H25">
-        <v>76296</v>
+        <v>21884.875</v>
       </c>
       <c r="I25">
-        <v>383</v>
+        <v>57.287999999999997</v>
       </c>
       <c r="J25">
-        <v>4720</v>
+        <v>208.5</v>
       </c>
       <c r="K25">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,203 +2762,203 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>52354</v>
+        <v>18967.831999999999</v>
       </c>
       <c r="O25">
-        <v>60718</v>
+        <v>19451.227999999999</v>
       </c>
       <c r="P25">
-        <v>6305</v>
+        <v>309.39999999999998</v>
       </c>
       <c r="Q25">
-        <v>68</v>
+        <v>160.83600000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="S25">
-        <v>5447</v>
+        <v>826</v>
       </c>
       <c r="T25">
-        <v>15578</v>
+        <v>2433.6469999999999</v>
       </c>
       <c r="U25">
-        <v>458</v>
+        <v>552.46500000000003</v>
       </c>
       <c r="V25">
-        <v>405</v>
+        <v>183.47399999999999</v>
       </c>
       <c r="W25">
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-335</v>
+        <v>-22.488</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>16.501000000000001</v>
       </c>
       <c r="AA25">
-        <v>344</v>
+        <v>84.254000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>352</v>
+        <v>101.163</v>
       </c>
       <c r="D26">
-        <v>1138</v>
+        <v>281.62</v>
       </c>
       <c r="E26">
-        <v>777</v>
+        <v>140.578</v>
       </c>
       <c r="F26">
-        <v>1138</v>
+        <v>281.62</v>
       </c>
       <c r="G26">
-        <v>57133</v>
+        <v>21418.14</v>
       </c>
       <c r="H26">
-        <v>82003</v>
+        <v>23813.791000000001</v>
       </c>
       <c r="I26">
-        <v>388</v>
+        <v>51.271999999999998</v>
       </c>
       <c r="J26">
-        <v>3871</v>
+        <v>186.5</v>
       </c>
       <c r="K26">
-        <v>1642</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-24.061</v>
       </c>
       <c r="N26">
-        <v>58617</v>
+        <v>20829.162</v>
       </c>
       <c r="O26">
-        <v>66213</v>
+        <v>21268.888999999999</v>
       </c>
       <c r="P26">
-        <v>6364</v>
+        <v>288.5</v>
       </c>
       <c r="Q26">
-        <v>-28</v>
+        <v>59.829000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="S26">
-        <v>5631</v>
+        <v>843</v>
       </c>
       <c r="T26">
-        <v>15790</v>
+        <v>2544.902</v>
       </c>
       <c r="U26">
-        <v>407</v>
+        <v>612.29399999999998</v>
       </c>
       <c r="V26">
-        <v>641</v>
+        <v>101.56</v>
       </c>
       <c r="W26">
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-96</v>
+        <v>-29.66</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-70</v>
+        <v>1E-3</v>
       </c>
       <c r="AA26">
-        <v>352</v>
+        <v>101.163</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>503</v>
+        <v>101.688</v>
       </c>
       <c r="D27">
-        <v>1166</v>
+        <v>296.15499999999997</v>
       </c>
       <c r="E27">
-        <v>999</v>
+        <v>135.94200000000001</v>
       </c>
       <c r="F27">
-        <v>1166</v>
+        <v>296.15499999999997</v>
       </c>
       <c r="G27">
-        <v>55073</v>
+        <v>25061.916000000001</v>
       </c>
       <c r="H27">
-        <v>79463</v>
+        <v>27449.881000000001</v>
       </c>
       <c r="I27">
-        <v>451</v>
+        <v>63.067999999999998</v>
       </c>
       <c r="J27">
-        <v>3872</v>
+        <v>370.40199999999999</v>
       </c>
       <c r="K27">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>56006</v>
+        <v>24158.743999999999</v>
       </c>
       <c r="O27">
-        <v>63639</v>
+        <v>24775.694</v>
       </c>
       <c r="P27">
-        <v>6248</v>
+        <v>482.65199999999999</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>-305.18599999999998</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="S27">
-        <v>5242</v>
+        <v>866</v>
       </c>
       <c r="T27">
-        <v>15824</v>
+        <v>2674.1869999999999</v>
       </c>
       <c r="U27">
-        <v>360</v>
+        <v>307.108</v>
       </c>
       <c r="V27">
-        <v>611</v>
+        <v>157.75899999999999</v>
       </c>
       <c r="W27">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-551</v>
+        <v>199.64599999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +2967,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>503</v>
+        <v>101.688</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>419</v>
+        <v>96.314999999999998</v>
       </c>
       <c r="D28">
-        <v>1180</v>
+        <v>287.14600000000002</v>
       </c>
       <c r="E28">
-        <v>912</v>
+        <v>134.50700000000001</v>
       </c>
       <c r="F28">
-        <v>1180</v>
+        <v>287.14600000000002</v>
       </c>
       <c r="G28">
-        <v>56448</v>
+        <v>25152.034</v>
       </c>
       <c r="H28">
-        <v>80324</v>
+        <v>28218.224999999999</v>
       </c>
       <c r="I28">
-        <v>415</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="J28">
-        <v>3874</v>
+        <v>394.83800000000002</v>
       </c>
       <c r="K28">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3011,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>56819</v>
+        <v>24779.645</v>
       </c>
       <c r="O28">
-        <v>64391</v>
+        <v>25497.067999999999</v>
       </c>
       <c r="P28">
-        <v>5897</v>
+        <v>637.33799999999997</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>232.09</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="S28">
-        <v>5128</v>
+        <v>947</v>
       </c>
       <c r="T28">
-        <v>15933</v>
+        <v>2721.1570000000002</v>
       </c>
       <c r="U28">
-        <v>398</v>
+        <v>539.19799999999998</v>
       </c>
       <c r="V28">
-        <v>488</v>
+        <v>119.252</v>
       </c>
       <c r="W28">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-770</v>
+        <v>55.929000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>438</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA28">
-        <v>419</v>
+        <v>96.314999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>371</v>
+        <v>99.132000000000005</v>
       </c>
       <c r="D29">
-        <v>1146</v>
+        <v>285.02300000000002</v>
       </c>
       <c r="E29">
-        <v>897</v>
+        <v>114.456</v>
       </c>
       <c r="F29">
-        <v>1146</v>
+        <v>285.02300000000002</v>
       </c>
       <c r="G29">
-        <v>55239</v>
+        <v>23575.777999999998</v>
       </c>
       <c r="H29">
-        <v>79118</v>
+        <v>26642.258999999998</v>
       </c>
       <c r="I29">
-        <v>427</v>
+        <v>65.162000000000006</v>
       </c>
       <c r="J29">
-        <v>4865</v>
+        <v>328.25400000000002</v>
       </c>
       <c r="K29">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3094,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>54600</v>
+        <v>23127.383999999998</v>
       </c>
       <c r="O29">
-        <v>63099</v>
+        <v>23825.493999999999</v>
       </c>
       <c r="P29">
-        <v>6062</v>
+        <v>581.00400000000002</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>82.593999999999994</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="S29">
-        <v>5100</v>
+        <v>933</v>
       </c>
       <c r="T29">
-        <v>16019</v>
+        <v>2816.7649999999999</v>
       </c>
       <c r="U29">
-        <v>419</v>
+        <v>621.79200000000003</v>
       </c>
       <c r="V29">
-        <v>311</v>
+        <v>155.18700000000001</v>
       </c>
       <c r="W29">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-213</v>
+        <v>-56.395000000000003</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="AA29">
-        <v>371</v>
+        <v>99.132000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1233</v>
+        <v>128.904</v>
       </c>
       <c r="D30">
-        <v>1146</v>
+        <v>334.28</v>
       </c>
       <c r="E30">
-        <v>903</v>
+        <v>165.244</v>
       </c>
       <c r="F30">
-        <v>1146</v>
+        <v>334.28</v>
       </c>
       <c r="G30">
-        <v>53562</v>
+        <v>25506.921999999999</v>
       </c>
       <c r="H30">
-        <v>78264</v>
+        <v>28622.491000000002</v>
       </c>
       <c r="I30">
-        <v>462</v>
+        <v>68.802000000000007</v>
       </c>
       <c r="J30">
-        <v>4267</v>
+        <v>261.82900000000001</v>
       </c>
       <c r="K30">
-        <v>1233</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-55.5</v>
       </c>
       <c r="N30">
-        <v>54175</v>
+        <v>24985.661</v>
       </c>
       <c r="O30">
-        <v>61279</v>
+        <v>25650.79</v>
       </c>
       <c r="P30">
-        <v>6100</v>
+        <v>524.82899999999995</v>
       </c>
       <c r="Q30">
-        <v>126</v>
+        <v>72.465000000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="S30">
-        <v>4952</v>
+        <v>949</v>
       </c>
       <c r="T30">
-        <v>16985</v>
+        <v>2971.701</v>
       </c>
       <c r="U30">
-        <v>535</v>
+        <v>694.25699999999995</v>
       </c>
       <c r="V30">
-        <v>675</v>
+        <v>155.35599999999999</v>
       </c>
       <c r="W30">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-437</v>
+        <v>-66.884</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-327</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AA30">
-        <v>1233</v>
+        <v>128.904</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>464</v>
+        <v>121.36499999999999</v>
       </c>
       <c r="D31">
-        <v>1225</v>
+        <v>325.21800000000002</v>
       </c>
       <c r="E31">
-        <v>1167</v>
+        <v>165.75800000000001</v>
       </c>
       <c r="F31">
-        <v>1225</v>
+        <v>325.21800000000002</v>
       </c>
       <c r="G31">
-        <v>56634</v>
+        <v>27931.554</v>
       </c>
       <c r="H31">
-        <v>82062</v>
+        <v>31040.873</v>
       </c>
       <c r="I31">
-        <v>476</v>
+        <v>82.085999999999999</v>
       </c>
       <c r="J31">
-        <v>4269</v>
+        <v>191.23699999999999</v>
       </c>
       <c r="K31">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3260,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>57946</v>
+        <v>27373.035</v>
       </c>
       <c r="O31">
-        <v>65056</v>
+        <v>27954.343000000001</v>
       </c>
       <c r="P31">
-        <v>6892</v>
+        <v>458.48700000000002</v>
       </c>
       <c r="Q31">
-        <v>90</v>
+        <v>62.417000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="S31">
-        <v>4879</v>
+        <v>972</v>
       </c>
       <c r="T31">
-        <v>17006</v>
+        <v>3086.53</v>
       </c>
       <c r="U31">
-        <v>523</v>
+        <v>756.67399999999998</v>
       </c>
       <c r="V31">
-        <v>573</v>
+        <v>165.71100000000001</v>
       </c>
       <c r="W31">
-        <v>-140</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>270</v>
+        <v>-87.781000000000006</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-304</v>
+        <v>-2.246</v>
       </c>
       <c r="AA31">
-        <v>464</v>
+        <v>121.36499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>455</v>
+        <v>132.631</v>
       </c>
       <c r="D32">
-        <v>1246</v>
+        <v>340.77800000000002</v>
       </c>
       <c r="E32">
-        <v>1049</v>
+        <v>159.21899999999999</v>
       </c>
       <c r="F32">
-        <v>1246</v>
+        <v>340.77800000000002</v>
       </c>
       <c r="G32">
-        <v>57560</v>
+        <v>35222.949000000001</v>
       </c>
       <c r="H32">
-        <v>82847</v>
+        <v>38666.730000000003</v>
       </c>
       <c r="I32">
-        <v>405</v>
+        <v>79.48</v>
       </c>
       <c r="J32">
-        <v>4271</v>
+        <v>370.62400000000002</v>
       </c>
       <c r="K32">
-        <v>2045</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3343,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>58894</v>
+        <v>34928.699999999997</v>
       </c>
       <c r="O32">
-        <v>66007</v>
+        <v>35655.597999999998</v>
       </c>
       <c r="P32">
-        <v>6916</v>
+        <v>602.12400000000002</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>-259.37099999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="S32">
-        <v>4867</v>
+        <v>984</v>
       </c>
       <c r="T32">
-        <v>16840</v>
+        <v>3011.1320000000001</v>
       </c>
       <c r="U32">
-        <v>532</v>
+        <v>497.303</v>
       </c>
       <c r="V32">
-        <v>663</v>
+        <v>219.71799999999999</v>
       </c>
       <c r="W32">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-571</v>
+        <v>39.981999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-514.24400000000003</v>
       </c>
       <c r="AA32">
-        <v>455</v>
+        <v>132.631</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>458</v>
+        <v>126.773</v>
       </c>
       <c r="D33">
-        <v>1195</v>
+        <v>327.21499999999997</v>
       </c>
       <c r="E33">
-        <v>1020</v>
+        <v>136.33099999999999</v>
       </c>
       <c r="F33">
-        <v>1195</v>
+        <v>327.21499999999997</v>
       </c>
       <c r="G33">
-        <v>61295</v>
+        <v>32605.391</v>
       </c>
       <c r="H33">
-        <v>87242</v>
+        <v>36147.864000000001</v>
       </c>
       <c r="I33">
-        <v>486</v>
+        <v>65.963999999999999</v>
       </c>
       <c r="J33">
-        <v>6488</v>
+        <v>837.5</v>
       </c>
       <c r="K33">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3426,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>61065</v>
+        <v>31800.313999999998</v>
       </c>
       <c r="O33">
-        <v>70388</v>
+        <v>32985.523000000001</v>
       </c>
       <c r="P33">
-        <v>7686</v>
+        <v>887.5</v>
       </c>
       <c r="Q33">
-        <v>-18</v>
+        <v>325.64600000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="S33">
-        <v>5042</v>
+        <v>1013</v>
       </c>
       <c r="T33">
-        <v>16854</v>
+        <v>3162.3409999999999</v>
       </c>
       <c r="U33">
-        <v>515</v>
+        <v>822.94899999999996</v>
       </c>
       <c r="V33">
-        <v>499</v>
+        <v>171.98500000000001</v>
       </c>
       <c r="W33">
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>282</v>
+        <v>219.79400000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="AA33">
-        <v>458</v>
+        <v>126.773</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>611</v>
+        <v>147.86500000000001</v>
       </c>
       <c r="D34">
-        <v>1313</v>
+        <v>365.19400000000002</v>
       </c>
       <c r="E34">
-        <v>953</v>
+        <v>178.84399999999999</v>
       </c>
       <c r="F34">
-        <v>1313</v>
+        <v>365.19400000000002</v>
       </c>
       <c r="G34">
-        <v>66692</v>
+        <v>32506.784</v>
       </c>
       <c r="H34">
-        <v>92791</v>
+        <v>36124.101000000002</v>
       </c>
       <c r="I34">
-        <v>521</v>
+        <v>76.820999999999998</v>
       </c>
       <c r="J34">
-        <v>6490</v>
+        <v>825</v>
       </c>
       <c r="K34">
-        <v>951</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="N34">
-        <v>66108</v>
+        <v>31550.501</v>
       </c>
       <c r="O34">
-        <v>75489</v>
+        <v>32716.204000000002</v>
       </c>
       <c r="P34">
-        <v>7441</v>
+        <v>875</v>
       </c>
       <c r="Q34">
-        <v>210</v>
+        <v>145.43600000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="S34">
-        <v>5161</v>
+        <v>1032</v>
       </c>
       <c r="T34">
-        <v>17302</v>
+        <v>3407.8969999999999</v>
       </c>
       <c r="U34">
-        <v>724</v>
+        <v>968.38499999999999</v>
       </c>
       <c r="V34">
-        <v>798</v>
+        <v>185.64400000000001</v>
       </c>
       <c r="W34">
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-444</v>
+        <v>-25.824000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>611</v>
+        <v>147.86500000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>484</v>
+        <v>143.15700000000001</v>
       </c>
       <c r="D35">
-        <v>1270</v>
+        <v>351.21300000000002</v>
       </c>
       <c r="E35">
-        <v>1181</v>
+        <v>175.18600000000001</v>
       </c>
       <c r="F35">
-        <v>1270</v>
+        <v>351.21300000000002</v>
       </c>
       <c r="G35">
-        <v>67485</v>
+        <v>36058.453999999998</v>
       </c>
       <c r="H35">
-        <v>93857</v>
+        <v>39504.767999999996</v>
       </c>
       <c r="I35">
-        <v>509</v>
+        <v>73.603999999999999</v>
       </c>
       <c r="J35">
-        <v>6492</v>
+        <v>812.5</v>
       </c>
       <c r="K35">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3592,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>67035</v>
+        <v>34955.548999999999</v>
       </c>
       <c r="O35">
-        <v>76656</v>
+        <v>36097.440999999999</v>
       </c>
       <c r="P35">
-        <v>7856</v>
+        <v>862.5</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>113.633</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="S35">
-        <v>5090</v>
+        <v>1059</v>
       </c>
       <c r="T35">
-        <v>17201</v>
+        <v>3407.3270000000002</v>
       </c>
       <c r="U35">
-        <v>653</v>
+        <v>1082.018</v>
       </c>
       <c r="V35">
-        <v>654</v>
+        <v>179.92500000000001</v>
       </c>
       <c r="W35">
-        <v>-157</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-596</v>
+        <v>-19.850000000000001</v>
       </c>
       <c r="Y35">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>44</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AA35">
-        <v>484</v>
+        <v>143.15700000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>472</v>
+        <v>131.08199999999999</v>
       </c>
       <c r="D36">
-        <v>1298</v>
+        <v>323.18700000000001</v>
       </c>
       <c r="E36">
-        <v>1062</v>
+        <v>148.89699999999999</v>
       </c>
       <c r="F36">
-        <v>1298</v>
+        <v>323.18700000000001</v>
       </c>
       <c r="G36">
-        <v>64372</v>
+        <v>34034.495000000003</v>
       </c>
       <c r="H36">
-        <v>90930</v>
+        <v>37540.084000000003</v>
       </c>
       <c r="I36">
-        <v>518</v>
+        <v>83.724999999999994</v>
       </c>
       <c r="J36">
-        <v>6494</v>
+        <v>800</v>
       </c>
       <c r="K36">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3675,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>64131</v>
+        <v>32810.341999999997</v>
       </c>
       <c r="O36">
-        <v>73712</v>
+        <v>33934.125</v>
       </c>
       <c r="P36">
-        <v>8149</v>
+        <v>850</v>
       </c>
       <c r="Q36">
-        <v>180</v>
+        <v>159.15799999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="S36">
-        <v>5351</v>
+        <v>1074</v>
       </c>
       <c r="T36">
-        <v>17218</v>
+        <v>3605.9589999999998</v>
       </c>
       <c r="U36">
-        <v>837</v>
+        <v>1241.1759999999999</v>
       </c>
       <c r="V36">
-        <v>728</v>
+        <v>207.14500000000001</v>
       </c>
       <c r="W36">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-186</v>
+        <v>-15.057</v>
       </c>
       <c r="Y36">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>472</v>
+        <v>131.08199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>529</v>
+        <v>129.89599999999999</v>
       </c>
       <c r="D37">
-        <v>1336</v>
+        <v>323.40600000000001</v>
       </c>
       <c r="E37">
-        <v>1056</v>
+        <v>127</v>
       </c>
       <c r="F37">
-        <v>1336</v>
+        <v>323.40600000000001</v>
       </c>
       <c r="G37">
-        <v>68871</v>
+        <v>33750</v>
       </c>
       <c r="H37">
-        <v>95339</v>
+        <v>37215</v>
       </c>
       <c r="I37">
-        <v>543</v>
+        <v>70</v>
       </c>
       <c r="J37">
-        <v>6496</v>
+        <v>969</v>
       </c>
       <c r="K37">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3758,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>68534</v>
+        <v>32246</v>
       </c>
       <c r="O37">
-        <v>78082</v>
+        <v>33538</v>
       </c>
       <c r="P37">
-        <v>8164</v>
+        <v>1132</v>
       </c>
       <c r="Q37">
-        <v>-82</v>
+        <v>370.77300000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="S37">
-        <v>5435</v>
+        <v>1077</v>
       </c>
       <c r="T37">
-        <v>17257</v>
+        <v>3677</v>
       </c>
       <c r="U37">
-        <v>655</v>
+        <v>1612</v>
       </c>
       <c r="V37">
-        <v>500</v>
+        <v>160.286</v>
       </c>
       <c r="W37">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-469</v>
+        <v>232.73099999999999</v>
       </c>
       <c r="Y37">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-41</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="AA37">
-        <v>529</v>
+        <v>129.89599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>448</v>
+        <v>135</v>
       </c>
       <c r="D38">
-        <v>1298</v>
+        <v>352</v>
       </c>
       <c r="E38">
-        <v>988</v>
+        <v>186.95500000000001</v>
       </c>
       <c r="F38">
-        <v>1298</v>
+        <v>352</v>
       </c>
       <c r="G38">
-        <v>67979</v>
+        <v>35375.180999999997</v>
       </c>
       <c r="H38">
-        <v>94493</v>
+        <v>38858.536999999997</v>
       </c>
       <c r="I38">
-        <v>505</v>
+        <v>95.277000000000001</v>
       </c>
       <c r="J38">
-        <v>5250</v>
+        <v>861.67600000000004</v>
       </c>
       <c r="K38">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-222</v>
       </c>
       <c r="N38">
-        <v>68816</v>
+        <v>33909.629999999997</v>
       </c>
       <c r="O38">
-        <v>77129</v>
+        <v>35095.853999999999</v>
       </c>
       <c r="P38">
-        <v>8153</v>
+        <v>910.5</v>
       </c>
       <c r="Q38">
-        <v>199</v>
+        <v>-221</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="S38">
-        <v>5989</v>
+        <v>1105</v>
       </c>
       <c r="T38">
-        <v>17364</v>
+        <v>3762.683</v>
       </c>
       <c r="U38">
-        <v>841</v>
+        <v>1390.836</v>
       </c>
       <c r="V38">
-        <v>777</v>
+        <v>150</v>
       </c>
       <c r="W38">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-502</v>
+        <v>-252</v>
       </c>
       <c r="Y38">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>448</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>650</v>
+        <v>154</v>
       </c>
       <c r="D39">
-        <v>1559</v>
+        <v>372</v>
       </c>
       <c r="E39">
-        <v>1569</v>
+        <v>185.78399999999999</v>
       </c>
       <c r="F39">
-        <v>1559</v>
+        <v>372</v>
       </c>
       <c r="G39">
-        <v>112253</v>
+        <v>37185.205999999998</v>
       </c>
       <c r="H39">
-        <v>138901</v>
+        <v>40613.726999999999</v>
       </c>
       <c r="I39">
-        <v>548</v>
+        <v>108.94799999999999</v>
       </c>
       <c r="J39">
-        <v>5252</v>
+        <v>753.971</v>
       </c>
       <c r="K39">
-        <v>1822</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3924,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>113526</v>
+        <v>35644.798000000003</v>
       </c>
       <c r="O39">
-        <v>121839</v>
+        <v>36719.682999999997</v>
       </c>
       <c r="P39">
-        <v>8595</v>
+        <v>802.79499999999996</v>
       </c>
       <c r="Q39">
-        <v>-202</v>
+        <v>66</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="S39">
-        <v>6293</v>
+        <v>1128</v>
       </c>
       <c r="T39">
-        <v>17062</v>
+        <v>3894.0439999999999</v>
       </c>
       <c r="U39">
-        <v>583</v>
+        <v>1457.048</v>
       </c>
       <c r="V39">
-        <v>520</v>
+        <v>232</v>
       </c>
       <c r="W39">
-        <v>-166</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-411</v>
+        <v>-102</v>
       </c>
       <c r="Y39">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>6</v>
+        <v>-37</v>
       </c>
       <c r="AA39">
-        <v>650</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>523</v>
+        <v>141</v>
       </c>
       <c r="D40">
-        <v>1395</v>
+        <v>338</v>
       </c>
       <c r="E40">
-        <v>1279</v>
+        <v>175.82599999999999</v>
       </c>
       <c r="F40">
-        <v>1395</v>
+        <v>338</v>
       </c>
       <c r="G40">
-        <v>97435</v>
+        <v>45389.607000000004</v>
       </c>
       <c r="H40">
-        <v>124060</v>
+        <v>48884.91</v>
       </c>
       <c r="I40">
-        <v>520</v>
+        <v>94.53</v>
       </c>
       <c r="J40">
-        <v>7703</v>
+        <v>341.76499999999999</v>
       </c>
       <c r="K40">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4007,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>96193</v>
+        <v>44145.809000000001</v>
       </c>
       <c r="O40">
-        <v>106971</v>
+        <v>44798.851999999999</v>
       </c>
       <c r="P40">
-        <v>8682</v>
+        <v>790.58900000000006</v>
       </c>
       <c r="Q40">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="S40">
-        <v>6423</v>
+        <v>1121</v>
       </c>
       <c r="T40">
-        <v>17089</v>
+        <v>4086.058</v>
       </c>
       <c r="U40">
-        <v>880</v>
+        <v>1537.2660000000001</v>
       </c>
       <c r="V40">
-        <v>858</v>
+        <v>180</v>
       </c>
       <c r="W40">
-        <v>-164</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-478</v>
+        <v>-22</v>
       </c>
       <c r="Y40">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>523</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1310</v>
+        <v>546</v>
       </c>
       <c r="F41">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>89137</v>
+        <v>44269</v>
       </c>
       <c r="H41">
-        <v>128080</v>
+        <v>64422</v>
       </c>
       <c r="I41">
-        <v>594</v>
+        <v>392</v>
       </c>
       <c r="J41">
-        <v>14869</v>
+        <v>3923</v>
       </c>
       <c r="K41">
-        <v>2463</v>
+        <v>1080</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4090,2369 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>89686</v>
+        <v>44321</v>
       </c>
       <c r="O41">
-        <v>108934</v>
+        <v>51719</v>
       </c>
       <c r="P41">
-        <v>17647</v>
+        <v>5058</v>
       </c>
       <c r="Q41">
-        <v>-270</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="S41">
-        <v>8445</v>
+        <v>4232</v>
       </c>
       <c r="T41">
-        <v>19146</v>
+        <v>12703</v>
       </c>
       <c r="U41">
-        <v>610</v>
+        <v>961</v>
       </c>
       <c r="V41">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>8598</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>261</v>
+      </c>
+      <c r="D42">
+        <v>797</v>
+      </c>
+      <c r="E42">
+        <v>544</v>
+      </c>
+      <c r="F42">
+        <v>797</v>
+      </c>
+      <c r="G42">
+        <v>45254</v>
+      </c>
+      <c r="H42">
+        <v>65921</v>
+      </c>
+      <c r="I42">
+        <v>357</v>
+      </c>
+      <c r="J42">
+        <v>3584</v>
+      </c>
+      <c r="K42">
+        <v>930</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-161</v>
+      </c>
+      <c r="N42">
+        <v>45403</v>
+      </c>
+      <c r="O42">
+        <v>52685</v>
+      </c>
+      <c r="P42">
+        <v>4881</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>41729</v>
+      </c>
+      <c r="S42">
+        <v>4048</v>
+      </c>
+      <c r="T42">
+        <v>13236</v>
+      </c>
+      <c r="U42">
+        <v>964</v>
+      </c>
+      <c r="V42">
+        <v>519</v>
+      </c>
+      <c r="W42">
+        <v>-76</v>
+      </c>
+      <c r="X42">
+        <v>-266</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>226</v>
+      </c>
+      <c r="D43">
+        <v>750</v>
+      </c>
+      <c r="E43">
+        <v>432</v>
+      </c>
+      <c r="F43">
+        <v>750</v>
+      </c>
+      <c r="G43">
+        <v>50191</v>
+      </c>
+      <c r="H43">
+        <v>68482</v>
+      </c>
+      <c r="I43">
+        <v>293</v>
+      </c>
+      <c r="J43">
+        <v>2248</v>
+      </c>
+      <c r="K43">
+        <v>368</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>49670</v>
+      </c>
+      <c r="O43">
+        <v>54942</v>
+      </c>
+      <c r="P43">
+        <v>3931</v>
+      </c>
+      <c r="Q43">
+        <v>1093</v>
+      </c>
+      <c r="R43">
+        <v>41820</v>
+      </c>
+      <c r="S43">
+        <v>4929</v>
+      </c>
+      <c r="T43">
+        <v>13540</v>
+      </c>
+      <c r="U43">
+        <v>2057</v>
+      </c>
+      <c r="V43">
+        <v>372</v>
+      </c>
+      <c r="W43">
+        <v>-75</v>
+      </c>
+      <c r="X43">
+        <v>-680</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>22</v>
+      </c>
+      <c r="AA43">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>206</v>
+      </c>
+      <c r="D44">
+        <v>745</v>
+      </c>
+      <c r="E44">
+        <v>446</v>
+      </c>
+      <c r="F44">
+        <v>745</v>
+      </c>
+      <c r="G44">
+        <v>49378</v>
+      </c>
+      <c r="H44">
+        <v>67286</v>
+      </c>
+      <c r="I44">
+        <v>282</v>
+      </c>
+      <c r="J44">
+        <v>2247</v>
+      </c>
+      <c r="K44">
+        <v>690</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>49337</v>
+      </c>
+      <c r="O44">
+        <v>54499</v>
+      </c>
+      <c r="P44">
+        <v>4136</v>
+      </c>
+      <c r="Q44">
+        <v>-1419</v>
+      </c>
+      <c r="R44">
+        <v>41912</v>
+      </c>
+      <c r="S44">
+        <v>4175</v>
+      </c>
+      <c r="T44">
+        <v>12787</v>
+      </c>
+      <c r="U44">
+        <v>638</v>
+      </c>
+      <c r="V44">
+        <v>82</v>
+      </c>
+      <c r="W44">
+        <v>-74</v>
+      </c>
+      <c r="X44">
+        <v>-333</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1276</v>
+      </c>
+      <c r="AA44">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>288</v>
+      </c>
+      <c r="D45">
+        <v>800</v>
+      </c>
+      <c r="E45">
+        <v>508</v>
+      </c>
+      <c r="F45">
+        <v>800</v>
+      </c>
+      <c r="G45">
+        <v>50232</v>
+      </c>
+      <c r="H45">
+        <v>68254</v>
+      </c>
+      <c r="I45">
+        <v>409</v>
+      </c>
+      <c r="J45">
+        <v>2235</v>
+      </c>
+      <c r="K45">
+        <v>905</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>50436</v>
+      </c>
+      <c r="O45">
+        <v>55697</v>
+      </c>
+      <c r="P45">
+        <v>4277</v>
+      </c>
+      <c r="Q45">
+        <v>14</v>
+      </c>
+      <c r="R45">
+        <v>42004</v>
+      </c>
+      <c r="S45">
+        <v>2902</v>
+      </c>
+      <c r="T45">
+        <v>12557</v>
+      </c>
+      <c r="U45">
+        <v>652</v>
+      </c>
+      <c r="V45">
+        <v>541</v>
+      </c>
+      <c r="W45">
+        <v>-74</v>
+      </c>
+      <c r="X45">
+        <v>-55</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>2274</v>
+      </c>
+      <c r="AA45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>315</v>
+      </c>
+      <c r="D46">
+        <v>850</v>
+      </c>
+      <c r="E46">
+        <v>608</v>
+      </c>
+      <c r="F46">
+        <v>850</v>
+      </c>
+      <c r="G46">
+        <v>48486</v>
+      </c>
+      <c r="H46">
+        <v>66428</v>
+      </c>
+      <c r="I46">
+        <v>392</v>
+      </c>
+      <c r="J46">
+        <v>2247</v>
+      </c>
+      <c r="K46">
+        <v>940</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>48798</v>
+      </c>
+      <c r="O46">
+        <v>53934</v>
+      </c>
+      <c r="P46">
+        <v>4193</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>42094</v>
+      </c>
+      <c r="S46">
+        <v>2887</v>
+      </c>
+      <c r="T46">
+        <v>12494</v>
+      </c>
+      <c r="U46">
+        <v>752</v>
+      </c>
+      <c r="V46">
+        <v>465</v>
+      </c>
+      <c r="W46">
+        <v>-73</v>
+      </c>
+      <c r="X46">
+        <v>-268</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-60</v>
+      </c>
+      <c r="AA46">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>283</v>
+      </c>
+      <c r="D47">
+        <v>797</v>
+      </c>
+      <c r="E47">
+        <v>541</v>
+      </c>
+      <c r="F47">
+        <v>797</v>
+      </c>
+      <c r="G47">
+        <v>45133</v>
+      </c>
+      <c r="H47">
+        <v>63104</v>
+      </c>
+      <c r="I47">
+        <v>324</v>
+      </c>
+      <c r="J47">
+        <v>2247</v>
+      </c>
+      <c r="K47">
+        <v>1016</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>45580</v>
+      </c>
+      <c r="O47">
+        <v>50621</v>
+      </c>
+      <c r="P47">
+        <v>3263</v>
+      </c>
+      <c r="Q47">
+        <v>-74</v>
+      </c>
+      <c r="R47">
+        <v>42185</v>
+      </c>
+      <c r="S47">
+        <v>2866</v>
+      </c>
+      <c r="T47">
+        <v>12483</v>
+      </c>
+      <c r="U47">
+        <v>678</v>
+      </c>
+      <c r="V47">
+        <v>305</v>
+      </c>
+      <c r="W47">
+        <v>-85</v>
+      </c>
+      <c r="X47">
+        <v>-1367</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1144</v>
+      </c>
+      <c r="AA47">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>306</v>
+      </c>
+      <c r="D48">
+        <v>816</v>
+      </c>
+      <c r="E48">
+        <v>490</v>
+      </c>
+      <c r="F48">
+        <v>816</v>
+      </c>
+      <c r="G48">
+        <v>48052</v>
+      </c>
+      <c r="H48">
+        <v>65856</v>
+      </c>
+      <c r="I48">
+        <v>297</v>
+      </c>
+      <c r="J48">
+        <v>2247</v>
+      </c>
+      <c r="K48">
+        <v>1253</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>48458</v>
+      </c>
+      <c r="O48">
+        <v>53446</v>
+      </c>
+      <c r="P48">
+        <v>3500</v>
+      </c>
+      <c r="Q48">
+        <v>9</v>
+      </c>
+      <c r="R48">
+        <v>42277</v>
+      </c>
+      <c r="S48">
+        <v>2907</v>
+      </c>
+      <c r="T48">
+        <v>12410</v>
+      </c>
+      <c r="U48">
+        <v>687</v>
+      </c>
+      <c r="V48">
+        <v>120</v>
+      </c>
+      <c r="W48">
+        <v>-84</v>
+      </c>
+      <c r="X48">
+        <v>-57</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>370</v>
+      </c>
+      <c r="D49">
+        <v>875</v>
+      </c>
+      <c r="E49">
+        <v>700</v>
+      </c>
+      <c r="F49">
+        <v>875</v>
+      </c>
+      <c r="G49">
+        <v>53313</v>
+      </c>
+      <c r="H49">
+        <v>77987</v>
+      </c>
+      <c r="I49">
+        <v>398</v>
+      </c>
+      <c r="J49">
+        <v>4717</v>
+      </c>
+      <c r="K49">
+        <v>2591</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>54743</v>
+      </c>
+      <c r="O49">
+        <v>63112</v>
+      </c>
+      <c r="P49">
+        <v>7308</v>
+      </c>
+      <c r="Q49">
+        <v>-60</v>
+      </c>
+      <c r="R49">
+        <v>42369</v>
+      </c>
+      <c r="S49">
+        <v>5549</v>
+      </c>
+      <c r="T49">
+        <v>14875</v>
+      </c>
+      <c r="U49">
+        <v>627</v>
+      </c>
+      <c r="V49">
+        <v>421</v>
+      </c>
+      <c r="W49">
+        <v>-89</v>
+      </c>
+      <c r="X49">
+        <v>3668</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-60</v>
+      </c>
+      <c r="AA49">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>369</v>
+      </c>
+      <c r="D50">
+        <v>1154</v>
+      </c>
+      <c r="E50">
+        <v>941</v>
+      </c>
+      <c r="F50">
+        <v>1154</v>
+      </c>
+      <c r="G50">
+        <v>54554</v>
+      </c>
+      <c r="H50">
+        <v>79160</v>
+      </c>
+      <c r="I50">
+        <v>399</v>
+      </c>
+      <c r="J50">
+        <v>4718</v>
+      </c>
+      <c r="K50">
+        <v>2048</v>
+      </c>
+      <c r="L50">
+        <v>-543</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>55636</v>
+      </c>
+      <c r="O50">
+        <v>64046</v>
+      </c>
+      <c r="P50">
+        <v>6766</v>
+      </c>
+      <c r="Q50">
+        <v>-159</v>
+      </c>
+      <c r="R50">
+        <v>42460</v>
+      </c>
+      <c r="S50">
+        <v>5526</v>
+      </c>
+      <c r="T50">
+        <v>15114</v>
+      </c>
+      <c r="U50">
+        <v>468</v>
+      </c>
+      <c r="V50">
+        <v>597</v>
+      </c>
+      <c r="W50">
+        <v>-102</v>
+      </c>
+      <c r="X50">
+        <v>-697</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>357</v>
+      </c>
+      <c r="D51">
+        <v>1129</v>
+      </c>
+      <c r="E51">
+        <v>862</v>
+      </c>
+      <c r="F51">
+        <v>1129</v>
+      </c>
+      <c r="G51">
+        <v>50630</v>
+      </c>
+      <c r="H51">
+        <v>75224</v>
+      </c>
+      <c r="I51">
+        <v>350</v>
+      </c>
+      <c r="J51">
+        <v>4719</v>
+      </c>
+      <c r="K51">
+        <v>1811</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>51438</v>
+      </c>
+      <c r="O51">
+        <v>59861</v>
+      </c>
+      <c r="P51">
+        <v>6530</v>
+      </c>
+      <c r="Q51">
+        <v>-78</v>
+      </c>
+      <c r="R51">
+        <v>42551</v>
+      </c>
+      <c r="S51">
+        <v>5503</v>
+      </c>
+      <c r="T51">
+        <v>15363</v>
+      </c>
+      <c r="U51">
+        <v>390</v>
+      </c>
+      <c r="V51">
+        <v>506</v>
+      </c>
+      <c r="W51">
+        <v>-103</v>
+      </c>
+      <c r="X51">
+        <v>-334</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>344</v>
+      </c>
+      <c r="D52">
+        <v>1078</v>
+      </c>
+      <c r="E52">
+        <v>789</v>
+      </c>
+      <c r="F52">
+        <v>1078</v>
+      </c>
+      <c r="G52">
+        <v>51844</v>
+      </c>
+      <c r="H52">
+        <v>76296</v>
+      </c>
+      <c r="I52">
+        <v>383</v>
+      </c>
+      <c r="J52">
+        <v>4720</v>
+      </c>
+      <c r="K52">
+        <v>1585</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>52354</v>
+      </c>
+      <c r="O52">
+        <v>60718</v>
+      </c>
+      <c r="P52">
+        <v>6305</v>
+      </c>
+      <c r="Q52">
+        <v>68</v>
+      </c>
+      <c r="R52">
+        <v>42643</v>
+      </c>
+      <c r="S52">
+        <v>5447</v>
+      </c>
+      <c r="T52">
+        <v>15578</v>
+      </c>
+      <c r="U52">
+        <v>458</v>
+      </c>
+      <c r="V52">
+        <v>405</v>
+      </c>
+      <c r="W52">
+        <v>-102</v>
+      </c>
+      <c r="X52">
+        <v>-335</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>352</v>
+      </c>
+      <c r="D53">
+        <v>1138</v>
+      </c>
+      <c r="E53">
+        <v>777</v>
+      </c>
+      <c r="F53">
+        <v>1138</v>
+      </c>
+      <c r="G53">
+        <v>57133</v>
+      </c>
+      <c r="H53">
+        <v>82003</v>
+      </c>
+      <c r="I53">
+        <v>388</v>
+      </c>
+      <c r="J53">
+        <v>3871</v>
+      </c>
+      <c r="K53">
+        <v>1642</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>58617</v>
+      </c>
+      <c r="O53">
+        <v>66213</v>
+      </c>
+      <c r="P53">
+        <v>6364</v>
+      </c>
+      <c r="Q53">
+        <v>-28</v>
+      </c>
+      <c r="R53">
+        <v>42735</v>
+      </c>
+      <c r="S53">
+        <v>5631</v>
+      </c>
+      <c r="T53">
+        <v>15790</v>
+      </c>
+      <c r="U53">
+        <v>407</v>
+      </c>
+      <c r="V53">
+        <v>641</v>
+      </c>
+      <c r="W53">
+        <v>-102</v>
+      </c>
+      <c r="X53">
+        <v>-96</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-70</v>
+      </c>
+      <c r="AA53">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>503</v>
+      </c>
+      <c r="D54">
+        <v>1166</v>
+      </c>
+      <c r="E54">
+        <v>999</v>
+      </c>
+      <c r="F54">
+        <v>1166</v>
+      </c>
+      <c r="G54">
+        <v>55073</v>
+      </c>
+      <c r="H54">
+        <v>79463</v>
+      </c>
+      <c r="I54">
+        <v>451</v>
+      </c>
+      <c r="J54">
+        <v>3872</v>
+      </c>
+      <c r="K54">
+        <v>1525</v>
+      </c>
+      <c r="L54">
+        <v>-117</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>56006</v>
+      </c>
+      <c r="O54">
+        <v>63639</v>
+      </c>
+      <c r="P54">
+        <v>6248</v>
+      </c>
+      <c r="Q54">
+        <v>17</v>
+      </c>
+      <c r="R54">
+        <v>42825</v>
+      </c>
+      <c r="S54">
+        <v>5242</v>
+      </c>
+      <c r="T54">
+        <v>15824</v>
+      </c>
+      <c r="U54">
+        <v>360</v>
+      </c>
+      <c r="V54">
+        <v>611</v>
+      </c>
+      <c r="W54">
+        <v>-120</v>
+      </c>
+      <c r="X54">
+        <v>-551</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>419</v>
+      </c>
+      <c r="D55">
+        <v>1180</v>
+      </c>
+      <c r="E55">
+        <v>912</v>
+      </c>
+      <c r="F55">
+        <v>1180</v>
+      </c>
+      <c r="G55">
+        <v>56448</v>
+      </c>
+      <c r="H55">
+        <v>80324</v>
+      </c>
+      <c r="I55">
+        <v>415</v>
+      </c>
+      <c r="J55">
+        <v>3874</v>
+      </c>
+      <c r="K55">
+        <v>1173</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>56819</v>
+      </c>
+      <c r="O55">
+        <v>64391</v>
+      </c>
+      <c r="P55">
+        <v>5897</v>
+      </c>
+      <c r="Q55">
+        <v>64</v>
+      </c>
+      <c r="R55">
+        <v>42916</v>
+      </c>
+      <c r="S55">
+        <v>5128</v>
+      </c>
+      <c r="T55">
+        <v>15933</v>
+      </c>
+      <c r="U55">
+        <v>398</v>
+      </c>
+      <c r="V55">
+        <v>488</v>
+      </c>
+      <c r="W55">
+        <v>-119</v>
+      </c>
+      <c r="X55">
+        <v>-770</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>438</v>
+      </c>
+      <c r="AA55">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>371</v>
+      </c>
+      <c r="D56">
+        <v>1146</v>
+      </c>
+      <c r="E56">
+        <v>897</v>
+      </c>
+      <c r="F56">
+        <v>1146</v>
+      </c>
+      <c r="G56">
+        <v>55239</v>
+      </c>
+      <c r="H56">
+        <v>79118</v>
+      </c>
+      <c r="I56">
+        <v>427</v>
+      </c>
+      <c r="J56">
+        <v>4865</v>
+      </c>
+      <c r="K56">
+        <v>1197</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>54600</v>
+      </c>
+      <c r="O56">
+        <v>63099</v>
+      </c>
+      <c r="P56">
+        <v>6062</v>
+      </c>
+      <c r="Q56">
+        <v>11</v>
+      </c>
+      <c r="R56">
+        <v>43008</v>
+      </c>
+      <c r="S56">
+        <v>5100</v>
+      </c>
+      <c r="T56">
+        <v>16019</v>
+      </c>
+      <c r="U56">
+        <v>419</v>
+      </c>
+      <c r="V56">
+        <v>311</v>
+      </c>
+      <c r="W56">
+        <v>-119</v>
+      </c>
+      <c r="X56">
+        <v>-213</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1233</v>
+      </c>
+      <c r="D57">
+        <v>1146</v>
+      </c>
+      <c r="E57">
+        <v>903</v>
+      </c>
+      <c r="F57">
+        <v>1146</v>
+      </c>
+      <c r="G57">
+        <v>53562</v>
+      </c>
+      <c r="H57">
+        <v>78264</v>
+      </c>
+      <c r="I57">
+        <v>462</v>
+      </c>
+      <c r="J57">
+        <v>4267</v>
+      </c>
+      <c r="K57">
+        <v>1233</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>54175</v>
+      </c>
+      <c r="O57">
+        <v>61279</v>
+      </c>
+      <c r="P57">
+        <v>6100</v>
+      </c>
+      <c r="Q57">
+        <v>126</v>
+      </c>
+      <c r="R57">
+        <v>43100</v>
+      </c>
+      <c r="S57">
+        <v>4952</v>
+      </c>
+      <c r="T57">
+        <v>16985</v>
+      </c>
+      <c r="U57">
+        <v>535</v>
+      </c>
+      <c r="V57">
+        <v>675</v>
+      </c>
+      <c r="W57">
+        <v>-118</v>
+      </c>
+      <c r="X57">
+        <v>-437</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-327</v>
+      </c>
+      <c r="AA57">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>464</v>
+      </c>
+      <c r="D58">
+        <v>1225</v>
+      </c>
+      <c r="E58">
+        <v>1167</v>
+      </c>
+      <c r="F58">
+        <v>1225</v>
+      </c>
+      <c r="G58">
+        <v>56634</v>
+      </c>
+      <c r="H58">
+        <v>82062</v>
+      </c>
+      <c r="I58">
+        <v>476</v>
+      </c>
+      <c r="J58">
+        <v>4269</v>
+      </c>
+      <c r="K58">
+        <v>2023</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>57946</v>
+      </c>
+      <c r="O58">
+        <v>65056</v>
+      </c>
+      <c r="P58">
+        <v>6892</v>
+      </c>
+      <c r="Q58">
+        <v>90</v>
+      </c>
+      <c r="R58">
+        <v>43190</v>
+      </c>
+      <c r="S58">
+        <v>4879</v>
+      </c>
+      <c r="T58">
+        <v>17006</v>
+      </c>
+      <c r="U58">
+        <v>523</v>
+      </c>
+      <c r="V58">
+        <v>573</v>
+      </c>
+      <c r="W58">
+        <v>-140</v>
+      </c>
+      <c r="X58">
+        <v>270</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-304</v>
+      </c>
+      <c r="AA58">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>455</v>
+      </c>
+      <c r="D59">
+        <v>1246</v>
+      </c>
+      <c r="E59">
+        <v>1049</v>
+      </c>
+      <c r="F59">
+        <v>1246</v>
+      </c>
+      <c r="G59">
+        <v>57560</v>
+      </c>
+      <c r="H59">
+        <v>82847</v>
+      </c>
+      <c r="I59">
+        <v>405</v>
+      </c>
+      <c r="J59">
+        <v>4271</v>
+      </c>
+      <c r="K59">
+        <v>2045</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>58894</v>
+      </c>
+      <c r="O59">
+        <v>66007</v>
+      </c>
+      <c r="P59">
+        <v>6916</v>
+      </c>
+      <c r="Q59">
+        <v>22</v>
+      </c>
+      <c r="R59">
+        <v>43281</v>
+      </c>
+      <c r="S59">
+        <v>4867</v>
+      </c>
+      <c r="T59">
+        <v>16840</v>
+      </c>
+      <c r="U59">
+        <v>532</v>
+      </c>
+      <c r="V59">
+        <v>663</v>
+      </c>
+      <c r="W59">
+        <v>-139</v>
+      </c>
+      <c r="X59">
+        <v>-571</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>458</v>
+      </c>
+      <c r="D60">
+        <v>1195</v>
+      </c>
+      <c r="E60">
+        <v>1020</v>
+      </c>
+      <c r="F60">
+        <v>1195</v>
+      </c>
+      <c r="G60">
+        <v>61295</v>
+      </c>
+      <c r="H60">
+        <v>87242</v>
+      </c>
+      <c r="I60">
+        <v>486</v>
+      </c>
+      <c r="J60">
+        <v>6488</v>
+      </c>
+      <c r="K60">
+        <v>1198</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>61065</v>
+      </c>
+      <c r="O60">
+        <v>70388</v>
+      </c>
+      <c r="P60">
+        <v>7686</v>
+      </c>
+      <c r="Q60">
+        <v>-18</v>
+      </c>
+      <c r="R60">
+        <v>43373</v>
+      </c>
+      <c r="S60">
+        <v>5042</v>
+      </c>
+      <c r="T60">
+        <v>16854</v>
+      </c>
+      <c r="U60">
+        <v>515</v>
+      </c>
+      <c r="V60">
+        <v>499</v>
+      </c>
+      <c r="W60">
+        <v>-138</v>
+      </c>
+      <c r="X60">
+        <v>282</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>611</v>
+      </c>
+      <c r="D61">
+        <v>1313</v>
+      </c>
+      <c r="E61">
+        <v>953</v>
+      </c>
+      <c r="F61">
+        <v>1313</v>
+      </c>
+      <c r="G61">
+        <v>66692</v>
+      </c>
+      <c r="H61">
+        <v>92791</v>
+      </c>
+      <c r="I61">
+        <v>521</v>
+      </c>
+      <c r="J61">
+        <v>6490</v>
+      </c>
+      <c r="K61">
+        <v>951</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>66108</v>
+      </c>
+      <c r="O61">
+        <v>75489</v>
+      </c>
+      <c r="P61">
+        <v>7441</v>
+      </c>
+      <c r="Q61">
+        <v>210</v>
+      </c>
+      <c r="R61">
+        <v>43465</v>
+      </c>
+      <c r="S61">
+        <v>5161</v>
+      </c>
+      <c r="T61">
+        <v>17302</v>
+      </c>
+      <c r="U61">
+        <v>724</v>
+      </c>
+      <c r="V61">
+        <v>798</v>
+      </c>
+      <c r="W61">
+        <v>-138</v>
+      </c>
+      <c r="X61">
+        <v>-444</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>76</v>
+      </c>
+      <c r="AA61">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>484</v>
+      </c>
+      <c r="D62">
+        <v>1270</v>
+      </c>
+      <c r="E62">
+        <v>1181</v>
+      </c>
+      <c r="F62">
+        <v>1270</v>
+      </c>
+      <c r="G62">
+        <v>67485</v>
+      </c>
+      <c r="H62">
+        <v>93857</v>
+      </c>
+      <c r="I62">
+        <v>509</v>
+      </c>
+      <c r="J62">
+        <v>6492</v>
+      </c>
+      <c r="K62">
+        <v>1005</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>67035</v>
+      </c>
+      <c r="O62">
+        <v>76656</v>
+      </c>
+      <c r="P62">
+        <v>7856</v>
+      </c>
+      <c r="Q62">
+        <v>19</v>
+      </c>
+      <c r="R62">
+        <v>43555</v>
+      </c>
+      <c r="S62">
+        <v>5090</v>
+      </c>
+      <c r="T62">
+        <v>17201</v>
+      </c>
+      <c r="U62">
+        <v>653</v>
+      </c>
+      <c r="V62">
+        <v>654</v>
+      </c>
+      <c r="W62">
+        <v>-157</v>
+      </c>
+      <c r="X62">
+        <v>-596</v>
+      </c>
+      <c r="Y62">
+        <v>306</v>
+      </c>
+      <c r="Z62">
+        <v>44</v>
+      </c>
+      <c r="AA62">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>472</v>
+      </c>
+      <c r="D63">
+        <v>1298</v>
+      </c>
+      <c r="E63">
+        <v>1062</v>
+      </c>
+      <c r="F63">
+        <v>1298</v>
+      </c>
+      <c r="G63">
+        <v>64372</v>
+      </c>
+      <c r="H63">
+        <v>90930</v>
+      </c>
+      <c r="I63">
+        <v>518</v>
+      </c>
+      <c r="J63">
+        <v>6494</v>
+      </c>
+      <c r="K63">
+        <v>1303</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>64131</v>
+      </c>
+      <c r="O63">
+        <v>73712</v>
+      </c>
+      <c r="P63">
+        <v>8149</v>
+      </c>
+      <c r="Q63">
+        <v>180</v>
+      </c>
+      <c r="R63">
+        <v>43646</v>
+      </c>
+      <c r="S63">
+        <v>5351</v>
+      </c>
+      <c r="T63">
+        <v>17218</v>
+      </c>
+      <c r="U63">
+        <v>837</v>
+      </c>
+      <c r="V63">
+        <v>728</v>
+      </c>
+      <c r="W63">
+        <v>-155</v>
+      </c>
+      <c r="X63">
+        <v>-186</v>
+      </c>
+      <c r="Y63">
+        <v>298</v>
+      </c>
+      <c r="Z63">
+        <v>40</v>
+      </c>
+      <c r="AA63">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>529</v>
+      </c>
+      <c r="D64">
+        <v>1336</v>
+      </c>
+      <c r="E64">
+        <v>1056</v>
+      </c>
+      <c r="F64">
+        <v>1336</v>
+      </c>
+      <c r="G64">
+        <v>68871</v>
+      </c>
+      <c r="H64">
+        <v>95339</v>
+      </c>
+      <c r="I64">
+        <v>543</v>
+      </c>
+      <c r="J64">
+        <v>6496</v>
+      </c>
+      <c r="K64">
+        <v>1329</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>68534</v>
+      </c>
+      <c r="O64">
+        <v>78082</v>
+      </c>
+      <c r="P64">
+        <v>8164</v>
+      </c>
+      <c r="Q64">
+        <v>-82</v>
+      </c>
+      <c r="R64">
+        <v>43738</v>
+      </c>
+      <c r="S64">
+        <v>5435</v>
+      </c>
+      <c r="T64">
+        <v>17257</v>
+      </c>
+      <c r="U64">
+        <v>655</v>
+      </c>
+      <c r="V64">
+        <v>500</v>
+      </c>
+      <c r="W64">
+        <v>-155</v>
+      </c>
+      <c r="X64">
+        <v>-469</v>
+      </c>
+      <c r="Y64">
+        <v>287</v>
+      </c>
+      <c r="Z64">
+        <v>-41</v>
+      </c>
+      <c r="AA64">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>448</v>
+      </c>
+      <c r="D65">
+        <v>1298</v>
+      </c>
+      <c r="E65">
+        <v>988</v>
+      </c>
+      <c r="F65">
+        <v>1298</v>
+      </c>
+      <c r="G65">
+        <v>67979</v>
+      </c>
+      <c r="H65">
+        <v>94493</v>
+      </c>
+      <c r="I65">
+        <v>505</v>
+      </c>
+      <c r="J65">
+        <v>5250</v>
+      </c>
+      <c r="K65">
+        <v>1321</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>68816</v>
+      </c>
+      <c r="O65">
+        <v>77129</v>
+      </c>
+      <c r="P65">
+        <v>8153</v>
+      </c>
+      <c r="Q65">
+        <v>199</v>
+      </c>
+      <c r="R65">
+        <v>43830</v>
+      </c>
+      <c r="S65">
+        <v>5989</v>
+      </c>
+      <c r="T65">
+        <v>17364</v>
+      </c>
+      <c r="U65">
+        <v>841</v>
+      </c>
+      <c r="V65">
+        <v>777</v>
+      </c>
+      <c r="W65">
+        <v>-154</v>
+      </c>
+      <c r="X65">
+        <v>-502</v>
+      </c>
+      <c r="Y65">
+        <v>281</v>
+      </c>
+      <c r="Z65">
+        <v>26</v>
+      </c>
+      <c r="AA65">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>650</v>
+      </c>
+      <c r="D66">
+        <v>1559</v>
+      </c>
+      <c r="E66">
+        <v>1569</v>
+      </c>
+      <c r="F66">
+        <v>1559</v>
+      </c>
+      <c r="G66">
+        <v>112253</v>
+      </c>
+      <c r="H66">
+        <v>138901</v>
+      </c>
+      <c r="I66">
+        <v>548</v>
+      </c>
+      <c r="J66">
+        <v>5252</v>
+      </c>
+      <c r="K66">
+        <v>1822</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>113526</v>
+      </c>
+      <c r="O66">
+        <v>121839</v>
+      </c>
+      <c r="P66">
+        <v>8595</v>
+      </c>
+      <c r="Q66">
+        <v>-202</v>
+      </c>
+      <c r="R66">
+        <v>43921</v>
+      </c>
+      <c r="S66">
+        <v>6293</v>
+      </c>
+      <c r="T66">
+        <v>17062</v>
+      </c>
+      <c r="U66">
+        <v>583</v>
+      </c>
+      <c r="V66">
+        <v>520</v>
+      </c>
+      <c r="W66">
+        <v>-166</v>
+      </c>
+      <c r="X66">
+        <v>-411</v>
+      </c>
+      <c r="Y66">
+        <v>272</v>
+      </c>
+      <c r="Z66">
+        <v>6</v>
+      </c>
+      <c r="AA66">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>523</v>
+      </c>
+      <c r="D67">
+        <v>1395</v>
+      </c>
+      <c r="E67">
+        <v>1279</v>
+      </c>
+      <c r="F67">
+        <v>1395</v>
+      </c>
+      <c r="G67">
+        <v>97435</v>
+      </c>
+      <c r="H67">
+        <v>124060</v>
+      </c>
+      <c r="I67">
+        <v>520</v>
+      </c>
+      <c r="J67">
+        <v>7703</v>
+      </c>
+      <c r="K67">
+        <v>705</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>96193</v>
+      </c>
+      <c r="O67">
+        <v>106971</v>
+      </c>
+      <c r="P67">
+        <v>8682</v>
+      </c>
+      <c r="Q67">
+        <v>295</v>
+      </c>
+      <c r="R67">
+        <v>44012</v>
+      </c>
+      <c r="S67">
+        <v>6423</v>
+      </c>
+      <c r="T67">
+        <v>17089</v>
+      </c>
+      <c r="U67">
+        <v>880</v>
+      </c>
+      <c r="V67">
+        <v>858</v>
+      </c>
+      <c r="W67">
+        <v>-164</v>
+      </c>
+      <c r="X67">
+        <v>-478</v>
+      </c>
+      <c r="Y67">
+        <v>274</v>
+      </c>
+      <c r="Z67">
+        <v>-3</v>
+      </c>
+      <c r="AA67">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>390</v>
+      </c>
+      <c r="D68">
+        <v>1411</v>
+      </c>
+      <c r="E68">
+        <v>1310</v>
+      </c>
+      <c r="F68">
+        <v>1411</v>
+      </c>
+      <c r="G68">
+        <v>89137</v>
+      </c>
+      <c r="H68">
+        <v>128080</v>
+      </c>
+      <c r="I68">
+        <v>594</v>
+      </c>
+      <c r="J68">
+        <v>14869</v>
+      </c>
+      <c r="K68">
+        <v>2463</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>89686</v>
+      </c>
+      <c r="O68">
+        <v>108934</v>
+      </c>
+      <c r="P68">
+        <v>17647</v>
+      </c>
+      <c r="Q68">
+        <v>-270</v>
+      </c>
+      <c r="R68">
+        <v>44104</v>
+      </c>
+      <c r="S68">
+        <v>8445</v>
+      </c>
+      <c r="T68">
+        <v>19146</v>
+      </c>
+      <c r="U68">
+        <v>610</v>
+      </c>
+      <c r="V68">
+        <v>437</v>
+      </c>
+      <c r="W68">
+        <v>-170</v>
+      </c>
+      <c r="X68">
+        <v>8598</v>
+      </c>
+      <c r="Y68">
+        <v>315</v>
+      </c>
+      <c r="Z68">
+        <v>2</v>
+      </c>
+      <c r="AA68">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
         <v>526</v>
       </c>
-      <c r="D42">
+      <c r="D69">
         <v>1671</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>1230</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>1671</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>87219</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>126200</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>639</v>
       </c>
-      <c r="J42">
+      <c r="J69">
         <v>14126</v>
       </c>
-      <c r="K42">
+      <c r="K69">
         <v>2411</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>87999</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>106573</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>16926</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>-20</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S69">
         <v>8890</v>
       </c>
-      <c r="T42">
+      <c r="T69">
         <v>19627</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>583</v>
       </c>
-      <c r="V42">
+      <c r="V69">
         <v>1066</v>
       </c>
-      <c r="W42">
+      <c r="W69">
         <v>-169</v>
       </c>
-      <c r="X42">
+      <c r="X69">
         <v>-965</v>
       </c>
-      <c r="Y42">
+      <c r="Y69">
         <v>320</v>
       </c>
-      <c r="Z42">
+      <c r="Z69">
         <v>-1</v>
       </c>
-      <c r="AA42">
+      <c r="AA69">
         <v>526</v>
       </c>
     </row>
